--- a/重要草稿/演员调度.xlsx
+++ b/重要草稿/演员调度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="23835" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>距离开始的时间</t>
   </si>
@@ -82,7 +82,7 @@
     <t>男主上场</t>
   </si>
   <si>
-    <t>四位主角先唱</t>
+    <t>另一个少女上台</t>
   </si>
   <si>
     <t>所有人上台</t>
@@ -112,7 +112,7 @@
     <t>成濑（本体，制服）</t>
   </si>
   <si>
-    <t>穿白衣</t>
+    <t>换装舞台少女</t>
   </si>
   <si>
     <t>成濑（替身，白衣）</t>
@@ -127,7 +127,10 @@
     <t>坂上</t>
   </si>
   <si>
-    <t>换王子装</t>
+    <t>换装王子</t>
+  </si>
+  <si>
+    <t>“你喜欢这个舞台吗”</t>
   </si>
   <si>
     <t>仁藤</t>
@@ -136,10 +139,16 @@
     <t>脱白衣</t>
   </si>
   <si>
+    <t>“我喜欢这里的一切”</t>
+  </si>
+  <si>
     <t>田崎</t>
   </si>
   <si>
-    <t>换蛋人装</t>
+    <t>换装蛋人</t>
+  </si>
+  <si>
+    <t>“你妈的为什么”</t>
   </si>
   <si>
     <t>蛋蛋</t>
@@ -184,6 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,14 +208,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,84 +335,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -366,25 +375,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,138 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,26 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -609,6 +598,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +635,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -654,27 +667,23 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,19 +704,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,116 +725,116 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,12 +886,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,14 +898,17 @@
     <xf numFmtId="176" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1230,10 +1236,10 @@
   <sheetPr/>
   <dimension ref="A2:XFB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2385" topLeftCell="N1" activePane="topRight"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1905" topLeftCell="W1" activePane="topRight"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="topRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5"/>
@@ -1281,127 +1287,127 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>B2+C7-IF(ISBLANK(C4),B7,0)</f>
+        <f t="shared" ref="C2:J2" si="0">B2+C7-IF(ISBLANK(C4),B7,0)</f>
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f>C2+D7-IF(ISBLANK(D4),C7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.000694444444444444</v>
       </c>
       <c r="E2" s="2">
-        <f>D2+E7-IF(ISBLANK(E4),D7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.000694444444444444</v>
       </c>
       <c r="F2" s="3">
-        <f>E2+F7-IF(ISBLANK(F4),E7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.00208333333333333</v>
       </c>
       <c r="G2" s="2">
-        <f>F2+G7-IF(ISBLANK(G4),F7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.00208333333333333</v>
       </c>
       <c r="H2" s="3">
-        <f>G2+H7-IF(ISBLANK(H4),G7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.00231481481481482</v>
       </c>
       <c r="I2" s="2">
-        <f>H2+I7-IF(ISBLANK(I4),H7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.00231481481481482</v>
       </c>
       <c r="J2" s="3">
-        <f>I2+J7-IF(ISBLANK(J4),I7,0)</f>
+        <f t="shared" si="0"/>
         <v>0.00370370370370371</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:AG2" si="0">J2+K7-IF(ISBLANK(K4),J7,0)</f>
+        <f t="shared" ref="K2:AG2" si="1">J2+K7-IF(ISBLANK(K4),J7,0)</f>
         <v>0.00370370370370371</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0050925925925926</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0050925925925926</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00648148148148149</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00648148148148149</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00648148148148149</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00787037037037038</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00787037037037038</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00856481481481482</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00925925925925927</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00925925925925927</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00995370370370371</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00995370370370371</v>
       </c>
       <c r="X2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0106481481481482</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.012037037037037</v>
       </c>
       <c r="Z2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.012037037037037</v>
       </c>
       <c r="AA2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0122685185185185</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0122685185185185</v>
       </c>
       <c r="AC2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0136574074074074</v>
       </c>
       <c r="AD2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0136574074074074</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0140046296296296</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0141203703703704</v>
       </c>
       <c r="AG2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0164351851851852</v>
       </c>
     </row>
@@ -1590,7 +1596,7 @@
       <c r="AD6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AF6" s="15" t="s">
@@ -1700,10 +1706,10 @@
       <c r="AD7" s="6">
         <v>0</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AE7" s="18">
         <v>0.000347222222222222</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AF7" s="18">
         <v>0.000462962962962963</v>
       </c>
       <c r="AG7" s="7">
@@ -1841,13 +1847,13 @@
       <c r="W15" s="6"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="21" t="s">
+      <c r="Z15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="21"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="11"/>
@@ -1871,16 +1877,16 @@
       <c r="W16" s="6"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="18" t="s">
+      <c r="Z16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="24" t="s">
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="8"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="24"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="11"/>
     </row>
@@ -1903,25 +1909,27 @@
       <c r="V17" s="11"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="18" t="s">
+      <c r="Z17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="6"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="12"/>
@@ -1937,23 +1945,25 @@
       <c r="T18" s="11"/>
       <c r="U18" s="6"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="18" t="s">
+      <c r="W18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="23"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="13"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="6"/>
+      <c r="AD18" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="11"/>
@@ -1965,22 +1975,25 @@
       <c r="S19" s="8"/>
       <c r="U19" s="6"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="23"/>
+      <c r="W19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="13"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="11"/>
+      <c r="AD19" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
       <c r="AG19" s="11"/>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="11"/>
@@ -1996,9 +2009,8 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:16382">
       <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>46</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="11"/>
       <c r="E21" s="2"/>
@@ -2007,12 +2019,11 @@
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="11"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="6"/>
       <c r="S21" s="8"/>
@@ -2020,21 +2031,19 @@
       <c r="U21" s="6"/>
       <c r="V21" s="11"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="1"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="1"/>
       <c r="AF21" s="8"/>
       <c r="AG21" s="11"/>
       <c r="XFB21"/>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="11"/>
@@ -2051,7 +2060,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="11"/>
@@ -2062,14 +2071,14 @@
     </row>
     <row r="25" spans="22:22">
       <c r="V25" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="Z17:AC17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="W18:AA18"/>
